--- a/src/main/resources/Data.xlsx
+++ b/src/main/resources/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Exit-Test\ExitTest\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBE6176-28D4-4B6F-A4FE-D842E7CB812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FED6D64-4CB3-45CB-9039-A59772A58EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
